--- a/Plan/Table/Live_Data/15.Velue_Table.xlsx
+++ b/Plan/Table/Live_Data/15.Velue_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9933E59A-58F8-4CED-8426-AF27C340F9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D515CA-2176-4613-94C5-0EC2778F9EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9167797D-FECA-40BB-B807-8FC42DE9E956}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{26D5AC9B-1DD7-4A43-8B3A-8165E3CCBBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="15.Velue_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -47,73 +47,145 @@
     <t>name</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_1</t>
+  </si>
+  <si>
     <t>정의로움</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_2</t>
+  </si>
+  <si>
     <t>자비로움</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_3</t>
+  </si>
+  <si>
     <t>용기있음</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_4</t>
+  </si>
+  <si>
     <t>협력적</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_5</t>
+  </si>
+  <si>
     <t>창의적</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_6</t>
+  </si>
+  <si>
     <t>공평함</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_7</t>
+  </si>
+  <si>
     <t>성실함</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_8</t>
+  </si>
+  <si>
     <t>겸손함</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_9</t>
+  </si>
+  <si>
     <t>낙천적</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_10</t>
+  </si>
+  <si>
     <t>이해심 높음</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_11</t>
+  </si>
+  <si>
     <t>자유로움</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_12</t>
+  </si>
+  <si>
     <t>도전적</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_13</t>
+  </si>
+  <si>
     <t>탐구적</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_14</t>
+  </si>
+  <si>
     <t>믿음직함</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_15</t>
+  </si>
+  <si>
     <t>헌신적</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_16</t>
+  </si>
+  <si>
     <t>열정적</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_17</t>
+  </si>
+  <si>
     <t>책임감 높음</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_18</t>
+  </si>
+  <si>
     <t>진취적</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_19</t>
+  </si>
+  <si>
     <t>보수적</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_20</t>
+  </si>
+  <si>
     <t>사려깊음</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_21</t>
+  </si>
+  <si>
     <t>자신감 높음</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_22</t>
+  </si>
+  <si>
     <t>전통주의</t>
   </si>
   <si>
+    <t xml:space="preserve"> chr_value_23</t>
+  </si>
+  <si>
     <t>기회주의적</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chr_value_24</t>
   </si>
   <si>
     <t>신중함</t>
@@ -499,7 +571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4B363B-F641-4282-A82E-343AD3BDFB62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9818BF6-F4BD-4C4E-9ADB-77ABC614466D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -523,264 +595,264 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="s">
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
